--- a/Open.xlsx
+++ b/Open.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Rave</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -354,6 +362,11 @@
     <row r="2" spans="1:1">
       <c r="A2">
         <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
